--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1255,6 +1255,22 @@
         <v>3345.4</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>sklearn</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>100</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
